--- a/Overall Stats/Good Ski/Good Ski Report.xlsx
+++ b/Overall Stats/Good Ski/Good Ski Report.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Good Ski\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Good Ski\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CA882C-E7F3-45AA-A803-75F406CC52D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07097DFC-3752-4C0D-AA62-57A93A6CAFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B1CC4F02-29BB-4D85-A04D-F0D4A5C8022D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B1CC4F02-29BB-4D85-A04D-F0D4A5C8022D}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="2020" sheetId="3" r:id="rId2"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -110,13 +105,49 @@
   </si>
   <si>
     <t>Hot</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Good Ski</t>
+  </si>
+  <si>
+    <t>2 Rainbow</t>
+  </si>
+  <si>
+    <t>17 Rainbow</t>
+  </si>
+  <si>
+    <t>28 Rainbow</t>
+  </si>
+  <si>
+    <t>6 Rainbow</t>
+  </si>
+  <si>
+    <t>6 Perch</t>
+  </si>
+  <si>
+    <t>RATING</t>
+  </si>
+  <si>
+    <t>Perch</t>
+  </si>
+  <si>
+    <t>Slow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +201,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -215,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,12 +286,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,6 +300,22 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,29 +548,35 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$B$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$C$2</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Rainbow</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LM Bass</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Perch</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3:$B$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>236</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,6 +890,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B424-4CB8-BB8A-6D2C3C34ECDF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -879,32 +938,86 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B424-4CB8-BB8A-6D2C3C34ECDF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$B$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$C$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Rainbow</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>LM Bass</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>Perch</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6:$B$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>99.159663865546221</c:v>
+                  <c:v>97.306397306397301</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84033613445378152</c:v>
+                  <c:v>0.67340067340067333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0202020202020203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2517,7 +2630,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F2" sqref="F2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2542,22 +2655,22 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="19"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="9"/>
       <c r="M2" s="9"/>
     </row>
@@ -2619,12 +2732,12 @@
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
       <c r="J5" s="8"/>
       <c r="M5" s="8"/>
     </row>
@@ -2666,15 +2779,15 @@
       <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <f>SUM(F4/$D13*100)</f>
         <v>99.159663865546221</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <f>SUM(G4/$D13*100)</f>
         <v>0.84033613445378152</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="14"/>
       <c r="J7" s="8"/>
       <c r="M7" s="8"/>
     </row>
@@ -2811,9 +2924,9 @@
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2829,11 +2942,264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9E80C-3400-4839-B748-71A1C1D9FCAF}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="8">
+        <v>53</v>
+      </c>
+      <c r="H4" s="8">
+        <v>6</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>17</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="14">
+        <f>SUM(G4/$E9*100)</f>
+        <v>89.830508474576277</v>
+      </c>
+      <c r="H7" s="14">
+        <f>SUM(H4/$E9*100)</f>
+        <v>10.16949152542373</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="8">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12">
+        <f>SUM(E4:E8)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="13">
+        <f>AVERAGE(E4:E8)</f>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6468AC4-6724-4976-8059-4EE4ABC1256F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2843,12 +3209,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -2857,26 +3223,31 @@
       <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <f>SUM('2019'!F4)</f>
-        <v>236</v>
+        <f>SUM('2019'!F4+'2020'!G4)</f>
+        <v>289</v>
       </c>
       <c r="B3" s="8">
         <f>SUM('2019'!G4)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8">
+        <f>SUM('2020'!H4)</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -2885,51 +3256,56 @@
       <c r="B5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <f>SUM(A3/$B8*100)</f>
-        <v>99.159663865546221</v>
-      </c>
-      <c r="B6" s="16">
-        <f>SUM(B3/$B8*100)</f>
-        <v>0.84033613445378152</v>
-      </c>
-      <c r="C6" s="16"/>
+        <v>97.306397306397301</v>
+      </c>
+      <c r="B6" s="14">
+        <f t="shared" ref="B6:C6" si="0">SUM(B3/$B8*100)</f>
+        <v>0.67340067340067333</v>
+      </c>
+      <c r="C6" s="14">
+        <f t="shared" si="0"/>
+        <v>2.0202020202020203</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18">
-        <f>SUM('2019'!D13)</f>
-        <v>238</v>
+      <c r="B8" s="16">
+        <f>SUM('2019'!D13+'2020'!E9)</f>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="18">
-        <f>SUM('2019'!D14)</f>
-        <v>9</v>
+      <c r="B9" s="16">
+        <f>SUM('2019'!D14+'2020'!E10)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <f>SUM(B8/B9)</f>
-        <v>26.444444444444443</v>
+        <v>21.214285714285715</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Overall Stats/Good Ski/Good Ski Report.xlsx
+++ b/Overall Stats/Good Ski/Good Ski Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Good Ski\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07097DFC-3752-4C0D-AA62-57A93A6CAFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97DD29-7D38-4DBB-9A5C-3A94A11E77FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B1CC4F02-29BB-4D85-A04D-F0D4A5C8022D}"/>
+    <workbookView xWindow="5115" yWindow="1230" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{B1CC4F02-29BB-4D85-A04D-F0D4A5C8022D}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -301,6 +301,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -308,13 +315,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -986,6 +986,11 @@
               </a:effectLst>
               <a:sp3d/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FAC9-4A67-BA2B-CDF8A5BC6BB9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2655,22 +2660,22 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="9"/>
       <c r="M2" s="9"/>
     </row>
@@ -2732,12 +2737,12 @@
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="8"/>
       <c r="M5" s="8"/>
     </row>
@@ -2945,7 +2950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9E80C-3400-4839-B748-71A1C1D9FCAF}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2967,10 +2972,10 @@
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
@@ -2978,23 +2983,23 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
@@ -3024,7 +3029,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8">
@@ -3050,7 +3055,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="8">
@@ -3064,18 +3069,18 @@
       <c r="F5" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8">
@@ -3101,7 +3106,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8"/>
@@ -3129,7 +3134,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="20" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
@@ -3180,7 +3185,7 @@
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="21" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3198,7 +3203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6468AC4-6724-4976-8059-4EE4ABC1256F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3209,12 +3214,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -3242,12 +3247,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">

--- a/Overall Stats/Good Ski/Good Ski Report.xlsx
+++ b/Overall Stats/Good Ski/Good Ski Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Good Ski\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC97DD29-7D38-4DBB-9A5C-3A94A11E77FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79087B0-3570-4239-8BDB-AE3624E430B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1230" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{B1CC4F02-29BB-4D85-A04D-F0D4A5C8022D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B1CC4F02-29BB-4D85-A04D-F0D4A5C8022D}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
@@ -552,13 +552,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Rainbow</c:v>
+                  <c:v>LM Bass</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LM Bass</c:v>
+                  <c:v>Perch</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Perch</c:v>
+                  <c:v>Rainbow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -570,13 +570,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>289</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -998,13 +998,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Rainbow</c:v>
+                  <c:v>LM Bass</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>LM Bass</c:v>
+                  <c:v>Perch</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Perch</c:v>
+                  <c:v>Rainbow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1016,13 +1016,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>97.306397306397301</c:v>
+                  <c:v>0.67340067340067333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67340067340067333</c:v>
+                  <c:v>2.0202020202020203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0202020202020203</c:v>
+                  <c:v>97.306397306397301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,7 +2950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9E80C-3400-4839-B748-71A1C1D9FCAF}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3203,14 +3203,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6468AC4-6724-4976-8059-4EE4ABC1256F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3223,27 +3224,27 @@
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
+        <f>SUM('2019'!G4)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <f>SUM('2020'!H4)</f>
+        <v>6</v>
+      </c>
+      <c r="C3" s="8">
         <f>SUM('2019'!F4+'2020'!G4)</f>
         <v>289</v>
-      </c>
-      <c r="B3" s="8">
-        <f>SUM('2019'!G4)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="8">
-        <f>SUM('2020'!H4)</f>
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3256,27 +3257,27 @@
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f>SUM(A3/$B8*100)</f>
+        <v>0.67340067340067333</v>
+      </c>
+      <c r="B6" s="14">
+        <f>SUM(B3/$B8*100)</f>
+        <v>2.0202020202020203</v>
+      </c>
+      <c r="C6" s="14">
+        <f>SUM(C3/$B8*100)</f>
         <v>97.306397306397301</v>
-      </c>
-      <c r="B6" s="14">
-        <f t="shared" ref="B6:C6" si="0">SUM(B3/$B8*100)</f>
-        <v>0.67340067340067333</v>
-      </c>
-      <c r="C6" s="14">
-        <f t="shared" si="0"/>
-        <v>2.0202020202020203</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/Good Ski/Good Ski Report.xlsx
+++ b/Overall Stats/Good Ski/Good Ski Report.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Good Ski\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79087B0-3570-4239-8BDB-AE3624E430B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF095937-D5CF-4F19-BD58-81CAAB881C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{B1CC4F02-29BB-4D85-A04D-F0D4A5C8022D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B1CC4F02-29BB-4D85-A04D-F0D4A5C8022D}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
     <sheet name="2020" sheetId="3" r:id="rId2"/>
-    <sheet name="Overall Stats" sheetId="2" r:id="rId3"/>
+    <sheet name="2021" sheetId="4" r:id="rId3"/>
+    <sheet name="Overall Stats" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="40">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -141,13 +149,19 @@
   </si>
   <si>
     <t>Slow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Good Ski</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +222,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -253,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -298,9 +319,6 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -311,11 +329,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,7 +606,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>289</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,13 +1046,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.67340067340067333</c:v>
+                  <c:v>0.6578947368421052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0202020202020203</c:v>
+                  <c:v>1.9736842105263157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.306397306397301</c:v>
+                  <c:v>97.368421052631575</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2950,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9E80C-3400-4839-B748-71A1C1D9FCAF}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2972,10 +3002,10 @@
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
@@ -3029,7 +3059,7 @@
       <c r="M3" s="6"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="8">
@@ -3055,7 +3085,7 @@
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="8">
@@ -3080,7 +3110,7 @@
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="8">
@@ -3106,7 +3136,7 @@
       <c r="M6" s="8"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="8"/>
@@ -3134,7 +3164,7 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8"/>
@@ -3185,7 +3215,7 @@
       <c r="A12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="20" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3200,17 +3230,153 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{747AC168-48B8-4382-8E53-7D3982CC344D}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8">
+        <v>7</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12">
+        <f>SUM(C4)</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="13">
+        <f>SUM(C4)</f>
+        <v>7</v>
+      </c>
+      <c r="E7" s="14">
+        <f>SUM(E4/C5*100)</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E5:H5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6468AC4-6724-4976-8059-4EE4ABC1256F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3243,8 +3409,8 @@
         <v>6</v>
       </c>
       <c r="C3" s="8">
-        <f>SUM('2019'!F4+'2020'!G4)</f>
-        <v>289</v>
+        <f>SUM('2019'!F4+'2020'!G4+'2021'!E4)</f>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
@@ -3269,15 +3435,15 @@
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <f>SUM(A3/$B8*100)</f>
-        <v>0.67340067340067333</v>
+        <v>0.6578947368421052</v>
       </c>
       <c r="B6" s="14">
         <f>SUM(B3/$B8*100)</f>
-        <v>2.0202020202020203</v>
+        <v>1.9736842105263157</v>
       </c>
       <c r="C6" s="14">
         <f>SUM(C3/$B8*100)</f>
-        <v>97.306397306397301</v>
+        <v>97.368421052631575</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3285,8 +3451,8 @@
         <v>17</v>
       </c>
       <c r="B8" s="16">
-        <f>SUM('2019'!D13+'2020'!E9)</f>
-        <v>297</v>
+        <f>SUM('2019'!D13+'2020'!E9+'2021'!C5)</f>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3294,8 +3460,8 @@
         <v>18</v>
       </c>
       <c r="B9" s="16">
-        <f>SUM('2019'!D14+'2020'!E10)</f>
-        <v>14</v>
+        <f>SUM('2019'!D14+'2020'!E10+'2021'!C6)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3304,15 +3470,15 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(B8/B9)</f>
-        <v>21.214285714285715</v>
+        <v>20.266666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>25</v>
+      <c r="B11" s="27" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
